--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Pltp-Abca1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Pltp-Abca1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.138644333333334</v>
+        <v>20.187688</v>
       </c>
       <c r="H2">
-        <v>15.415933</v>
+        <v>60.563064</v>
       </c>
       <c r="I2">
-        <v>0.1788080791399461</v>
+        <v>0.4610390972738712</v>
       </c>
       <c r="J2">
-        <v>0.1788080791399461</v>
+        <v>0.4610390972738712</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>29.880108</v>
+        <v>10.00528166666667</v>
       </c>
       <c r="N2">
-        <v>89.64032399999999</v>
+        <v>30.015845</v>
       </c>
       <c r="O2">
-        <v>0.4868991363731112</v>
+        <v>0.2411298117910886</v>
       </c>
       <c r="P2">
-        <v>0.4868991363731112</v>
+        <v>0.2411298117910886</v>
       </c>
       <c r="Q2">
-        <v>153.543247653588</v>
+        <v>201.9835046387867</v>
       </c>
       <c r="R2">
-        <v>1381.889228882292</v>
+        <v>1817.85154174908</v>
       </c>
       <c r="S2">
-        <v>0.08706149930977468</v>
+        <v>0.1111702707539819</v>
       </c>
       <c r="T2">
-        <v>0.08706149930977469</v>
+        <v>0.1111702707539819</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.138644333333334</v>
+        <v>20.187688</v>
       </c>
       <c r="H3">
-        <v>15.415933</v>
+        <v>60.563064</v>
       </c>
       <c r="I3">
-        <v>0.1788080791399461</v>
+        <v>0.4610390972738712</v>
       </c>
       <c r="J3">
-        <v>0.1788080791399461</v>
+        <v>0.4610390972738712</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>75.882034</v>
       </c>
       <c r="O3">
-        <v>0.412168265041468</v>
+        <v>0.6095920530221616</v>
       </c>
       <c r="P3">
-        <v>0.412168265041468</v>
+        <v>0.6095920530221617</v>
       </c>
       <c r="Q3">
-        <v>129.9769280053025</v>
+        <v>510.6276090657973</v>
       </c>
       <c r="R3">
-        <v>1169.792352047722</v>
+        <v>4595.648481592176</v>
       </c>
       <c r="S3">
-        <v>0.07369901575450909</v>
+        <v>0.2810457698306632</v>
       </c>
       <c r="T3">
-        <v>0.0736990157545091</v>
+        <v>0.2810457698306633</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.138644333333334</v>
+        <v>20.187688</v>
       </c>
       <c r="H4">
-        <v>15.415933</v>
+        <v>60.563064</v>
       </c>
       <c r="I4">
-        <v>0.1788080791399461</v>
+        <v>0.4610390972738712</v>
       </c>
       <c r="J4">
-        <v>0.1788080791399461</v>
+        <v>0.4610390972738712</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.194048666666667</v>
+        <v>6.194048666666666</v>
       </c>
       <c r="N4">
         <v>18.582146</v>
       </c>
       <c r="O4">
-        <v>0.1009325985854208</v>
+        <v>0.1492781351867498</v>
       </c>
       <c r="P4">
-        <v>0.1009325985854208</v>
+        <v>0.1492781351867498</v>
       </c>
       <c r="Q4">
-        <v>31.82901308135756</v>
+        <v>125.0435219394826</v>
       </c>
       <c r="R4">
-        <v>286.461117732218</v>
+        <v>1125.391697455344</v>
       </c>
       <c r="S4">
-        <v>0.01804756407566234</v>
+        <v>0.06882305668922604</v>
       </c>
       <c r="T4">
-        <v>0.01804756407566234</v>
+        <v>0.06882305668922604</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>54.584256</v>
       </c>
       <c r="I5">
-        <v>0.633118084169351</v>
+        <v>0.4155251476643568</v>
       </c>
       <c r="J5">
-        <v>0.6331180841693511</v>
+        <v>0.4155251476643568</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>29.880108</v>
+        <v>10.00528166666667</v>
       </c>
       <c r="N5">
-        <v>89.64032399999999</v>
+        <v>30.015845</v>
       </c>
       <c r="O5">
-        <v>0.4868991363731112</v>
+        <v>0.2411298117910886</v>
       </c>
       <c r="P5">
-        <v>0.4868991363731112</v>
+        <v>0.2411298117910886</v>
       </c>
       <c r="Q5">
-        <v>543.6611547932158</v>
+        <v>182.0436186151467</v>
       </c>
       <c r="R5">
-        <v>4892.950393138944</v>
+        <v>1638.39256753632</v>
       </c>
       <c r="S5">
-        <v>0.3082646484042557</v>
+        <v>0.1001955006507706</v>
       </c>
       <c r="T5">
-        <v>0.3082646484042558</v>
+        <v>0.1001955006507706</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>54.584256</v>
       </c>
       <c r="I6">
-        <v>0.633118084169351</v>
+        <v>0.4155251476643568</v>
       </c>
       <c r="J6">
-        <v>0.6331180841693511</v>
+        <v>0.4155251476643568</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>75.882034</v>
       </c>
       <c r="O6">
-        <v>0.412168265041468</v>
+        <v>0.6095920530221616</v>
       </c>
       <c r="P6">
-        <v>0.412168265041468</v>
+        <v>0.6095920530221617</v>
       </c>
       <c r="Q6">
-        <v>460.2182632951893</v>
+        <v>460.2182632951894</v>
       </c>
       <c r="R6">
-        <v>4141.964369656704</v>
+        <v>4141.964369656705</v>
       </c>
       <c r="S6">
-        <v>0.2609511823184595</v>
+        <v>0.2533008278470521</v>
       </c>
       <c r="T6">
-        <v>0.2609511823184596</v>
+        <v>0.2533008278470522</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>54.584256</v>
       </c>
       <c r="I7">
-        <v>0.633118084169351</v>
+        <v>0.4155251476643568</v>
       </c>
       <c r="J7">
-        <v>0.6331180841693511</v>
+        <v>0.4155251476643568</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,16 +862,16 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.194048666666667</v>
+        <v>6.194048666666666</v>
       </c>
       <c r="N7">
         <v>18.582146</v>
       </c>
       <c r="O7">
-        <v>0.1009325985854208</v>
+        <v>0.1492781351867498</v>
       </c>
       <c r="P7">
-        <v>0.1009325985854208</v>
+        <v>0.1492781351867498</v>
       </c>
       <c r="Q7">
         <v>112.6991793659307</v>
@@ -880,10 +880,10 @@
         <v>1014.292614293376</v>
       </c>
       <c r="S7">
-        <v>0.06390225344663578</v>
+        <v>0.06202881916653404</v>
       </c>
       <c r="T7">
-        <v>0.06390225344663579</v>
+        <v>0.06202881916653403</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>16.21478</v>
       </c>
       <c r="I8">
-        <v>0.1880738366907028</v>
+        <v>0.123435755061772</v>
       </c>
       <c r="J8">
-        <v>0.1880738366907028</v>
+        <v>0.123435755061772</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>29.880108</v>
+        <v>10.00528166666667</v>
       </c>
       <c r="N8">
-        <v>89.64032399999999</v>
+        <v>30.015845</v>
       </c>
       <c r="O8">
-        <v>0.4868991363731112</v>
+        <v>0.2411298117910886</v>
       </c>
       <c r="P8">
-        <v>0.4868991363731112</v>
+        <v>0.2411298117910886</v>
       </c>
       <c r="Q8">
-        <v>161.49979253208</v>
+        <v>54.07781368767778</v>
       </c>
       <c r="R8">
-        <v>1453.49813278872</v>
+        <v>486.7003231891</v>
       </c>
       <c r="S8">
-        <v>0.09157298865908073</v>
+        <v>0.029764040386336</v>
       </c>
       <c r="T8">
-        <v>0.09157298865908073</v>
+        <v>0.02976404038633599</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>16.21478</v>
       </c>
       <c r="I9">
-        <v>0.1880738366907028</v>
+        <v>0.123435755061772</v>
       </c>
       <c r="J9">
-        <v>0.1880738366907028</v>
+        <v>0.123435755061772</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>75.882034</v>
       </c>
       <c r="O9">
-        <v>0.412168265041468</v>
+        <v>0.6095920530221616</v>
       </c>
       <c r="P9">
-        <v>0.412168265041468</v>
+        <v>0.6095920530221617</v>
       </c>
       <c r="Q9">
         <v>136.7122763625023</v>
@@ -1004,10 +1004,10 @@
         <v>1230.41048726252</v>
       </c>
       <c r="S9">
-        <v>0.07751806696849935</v>
+        <v>0.07524545534444628</v>
       </c>
       <c r="T9">
-        <v>0.07751806696849935</v>
+        <v>0.07524545534444629</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>16.21478</v>
       </c>
       <c r="I10">
-        <v>0.1880738366907028</v>
+        <v>0.123435755061772</v>
       </c>
       <c r="J10">
-        <v>0.1880738366907028</v>
+        <v>0.123435755061772</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,16 +1048,16 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.194048666666667</v>
+        <v>6.194048666666666</v>
       </c>
       <c r="N10">
         <v>18.582146</v>
       </c>
       <c r="O10">
-        <v>0.1009325985854208</v>
+        <v>0.1492781351867498</v>
       </c>
       <c r="P10">
-        <v>0.1009325985854208</v>
+        <v>0.1492781351867498</v>
       </c>
       <c r="Q10">
         <v>33.47837881309778</v>
@@ -1066,10 +1066,10 @@
         <v>301.30540931788</v>
       </c>
       <c r="S10">
-        <v>0.01898278106312269</v>
+        <v>0.01842625933098974</v>
       </c>
       <c r="T10">
-        <v>0.01898278106312269</v>
+        <v>0.01842625933098974</v>
       </c>
     </row>
   </sheetData>
